--- a/data/metadata/Informe-04-040004-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040004-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>numero-hogares</t>
   </si>
@@ -52,18 +52,12 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-dimension:ruidos-exteriores</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:aragon</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -76,9 +70,15 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>URI-comarca</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>mapping-ruidos-exteriores.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-aragon.xlsx</t>
   </si>
 </sst>
 </file>
@@ -197,16 +194,16 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -214,31 +211,31 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -246,10 +243,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -258,13 +255,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -282,9 +279,6 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-04-040004-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040004-A-TC-TM-TP.xlsx
@@ -13,55 +13,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
-    <t>numero-hogares</t>
-  </si>
-  <si>
-    <t>contaminacion</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>ruidos-exteriores</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>aragon</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Número hogares</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Contaminación</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Aragón</t>
+  </si>
+  <si>
+    <t>Ruidos exteriores</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:numero-hogares</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>iaest-dimension:contaminacion</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>iaest-dimension:ruidos-exteriores</t>
   </si>
   <si>
+    <t>dim</t>
+  </si>
+  <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>URI-comarca</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -70,16 +73,13 @@
     <t>skos:Concept</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
   <si>
     <t>mapping-contaminacion.xlsx</t>
@@ -191,22 +191,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -220,25 +220,25 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -255,29 +255,29 @@
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/metadata/Informe-04-040004-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-04-040004-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Comarca nombre</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Municipio nombre</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>comarca-nombre</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>municipio-nombre</t>
   </si>
   <si>
-    <t>ano</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>iaest-dimension:ruidos-exteriores</t>
   </si>
   <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
@@ -125,71 +116,45 @@
   </si>
   <si>
     <t>mapping-ruidos-exteriores.xlsx</t>
-  </si>
-  <si>
-    <t>constante</t>
-  </si>
-  <si>
-    <t>&lt;http://reference.data.gov.uk/id/year/2001&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,15 +164,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -244,165 +206,141 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4"/>
     </row>
     <row r="6">
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
